--- a/odds/OnP Fantasy 2025 Betting Odds.xlsx
+++ b/odds/OnP Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t>Record</t>
   </si>
@@ -36,12 +36,12 @@
     <t>No, This Is Patrick!</t>
   </si>
   <si>
+    <t>Cowtown Cowboys</t>
+  </si>
+  <si>
     <t>Red Bulls On Parade</t>
   </si>
   <si>
-    <t>Cowtown Cowboys</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dennis The Menace </t>
   </si>
   <si>
@@ -51,12 +51,12 @@
     <t xml:space="preserve">Kill Bills </t>
   </si>
   <si>
+    <t>Cans in My Hands</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Johnny  Dramas </t>
   </si>
   <si>
-    <t>Cans in My Hands</t>
-  </si>
-  <si>
     <t>I'm Sorry Mrs. Jackson</t>
   </si>
   <si>
@@ -87,28 +87,28 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.3%</t>
-  </si>
-  <si>
-    <t>99.2%</t>
-  </si>
-  <si>
-    <t>89.0%</t>
-  </si>
-  <si>
-    <t>52.9%</t>
-  </si>
-  <si>
-    <t>50.8%</t>
-  </si>
-  <si>
-    <t>4.2%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
+    <t>99.8%</t>
+  </si>
+  <si>
+    <t>98.8%</t>
+  </si>
+  <si>
+    <t>89.1%</t>
+  </si>
+  <si>
+    <t>54.5%</t>
+  </si>
+  <si>
+    <t>48.5%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -117,28 +117,28 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-14186</t>
-  </si>
-  <si>
-    <t>-12400</t>
-  </si>
-  <si>
-    <t>-809</t>
-  </si>
-  <si>
-    <t>-112</t>
-  </si>
-  <si>
-    <t>-103</t>
-  </si>
-  <si>
-    <t>+2281</t>
-  </si>
-  <si>
-    <t>+3126</t>
-  </si>
-  <si>
-    <t>+6567</t>
+    <t>-49900</t>
+  </si>
+  <si>
+    <t>-8233</t>
+  </si>
+  <si>
+    <t>-817</t>
+  </si>
+  <si>
+    <t>-120</t>
+  </si>
+  <si>
+    <t>+106</t>
+  </si>
+  <si>
+    <t>+2173</t>
+  </si>
+  <si>
+    <t>+2678</t>
+  </si>
+  <si>
+    <t>+7592</t>
   </si>
   <si>
     <t>+∞</t>
@@ -147,25 +147,31 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>77.5%</t>
-  </si>
-  <si>
-    <t>22.1%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-344</t>
-  </si>
-  <si>
-    <t>+352</t>
-  </si>
-  <si>
-    <t>+24900</t>
-  </si>
-  <si>
-    <t>73.7%</t>
+    <t>78.2%</t>
+  </si>
+  <si>
+    <t>21.3%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>-359</t>
+  </si>
+  <si>
+    <t>+369</t>
+  </si>
+  <si>
+    <t>+33233</t>
+  </si>
+  <si>
+    <t>+49900</t>
+  </si>
+  <si>
+    <t>74.3%</t>
   </si>
   <si>
     <t>22.7%</t>
@@ -174,13 +180,25 @@
     <t>1.7%</t>
   </si>
   <si>
-    <t>-280</t>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-289</t>
   </si>
   <si>
     <t>+341</t>
   </si>
   <si>
     <t>+5782</t>
+  </si>
+  <si>
+    <t>+8233</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -764,7 +782,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -778,7 +796,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -792,29 +810,29 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -853,7 +871,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -909,7 +927,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -956,10 +974,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -970,52 +988,52 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1034,7 +1052,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1090,7 +1108,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>

--- a/odds/OnP Fantasy 2025 Betting Odds.xlsx
+++ b/odds/OnP Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>Record</t>
   </si>
@@ -33,82 +33,79 @@
     <t>The Bill Croskey Show</t>
   </si>
   <si>
+    <t>Red Bulls On Parade</t>
+  </si>
+  <si>
     <t>No, This Is Patrick!</t>
   </si>
   <si>
     <t>Cowtown Cowboys</t>
   </si>
   <si>
-    <t>Red Bulls On Parade</t>
+    <t>U Lost to a Red Bull Rookie</t>
   </si>
   <si>
     <t xml:space="preserve">Dennis The Menace </t>
   </si>
   <si>
-    <t>U Lost to a Red Bull Rookie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kill Bills </t>
   </si>
   <si>
     <t>Cans in My Hands</t>
   </si>
   <si>
+    <t>I'm Sorry Mrs. Jackson</t>
+  </si>
+  <si>
+    <t>Claytons Team of Experts</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Johnny  Dramas </t>
   </si>
   <si>
-    <t>I'm Sorry Mrs. Jackson</t>
-  </si>
-  <si>
-    <t>Claytons Team of Experts</t>
-  </si>
-  <si>
     <t>Frisco Full Can Field Goals 🏈</t>
   </si>
   <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.8%</t>
-  </si>
-  <si>
-    <t>98.8%</t>
-  </si>
-  <si>
-    <t>89.1%</t>
-  </si>
-  <si>
-    <t>54.5%</t>
-  </si>
-  <si>
-    <t>48.5%</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>1.3%</t>
+    <t>94.4%</t>
+  </si>
+  <si>
+    <t>74.1%</t>
+  </si>
+  <si>
+    <t>71.5%</t>
+  </si>
+  <si>
+    <t>56.6%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -117,28 +114,22 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-49900</t>
-  </si>
-  <si>
-    <t>-8233</t>
-  </si>
-  <si>
-    <t>-817</t>
-  </si>
-  <si>
-    <t>-120</t>
-  </si>
-  <si>
-    <t>+106</t>
-  </si>
-  <si>
-    <t>+2173</t>
-  </si>
-  <si>
-    <t>+2678</t>
-  </si>
-  <si>
-    <t>+7592</t>
+    <t>-1686</t>
+  </si>
+  <si>
+    <t>-286</t>
+  </si>
+  <si>
+    <t>-251</t>
+  </si>
+  <si>
+    <t>-130</t>
+  </si>
+  <si>
+    <t>+4445</t>
+  </si>
+  <si>
+    <t>+8233</t>
   </si>
   <si>
     <t>+∞</t>
@@ -147,58 +138,34 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>78.2%</t>
-  </si>
-  <si>
-    <t>21.3%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-359</t>
-  </si>
-  <si>
-    <t>+369</t>
-  </si>
-  <si>
-    <t>+33233</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>74.3%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-289</t>
-  </si>
-  <si>
-    <t>+341</t>
-  </si>
-  <si>
-    <t>+5782</t>
-  </si>
-  <si>
-    <t>+8233</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>85.2%</t>
+  </si>
+  <si>
+    <t>13.3%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>-576</t>
+  </si>
+  <si>
+    <t>+652</t>
+  </si>
+  <si>
+    <t>+6567</t>
+  </si>
+  <si>
+    <t>98.2%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>-5456</t>
+  </si>
+  <si>
+    <t>+5456</t>
   </si>
 </sst>
 </file>
@@ -584,10 +551,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -595,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -609,13 +576,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -623,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -637,13 +604,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -657,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -665,13 +632,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -679,13 +646,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -693,13 +660,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -707,13 +674,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -721,13 +688,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -735,13 +702,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -779,150 +746,150 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -930,13 +897,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -968,16 +935,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -985,153 +952,153 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/odds/OnP Fantasy 2025 Betting Odds.xlsx
+++ b/odds/OnP Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Record</t>
   </si>
@@ -36,27 +36,27 @@
     <t>Red Bulls On Parade</t>
   </si>
   <si>
+    <t>U Lost to a Red Bull Rookie</t>
+  </si>
+  <si>
     <t>No, This Is Patrick!</t>
   </si>
   <si>
     <t>Cowtown Cowboys</t>
   </si>
   <si>
-    <t>U Lost to a Red Bull Rookie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dennis The Menace </t>
   </si>
   <si>
     <t xml:space="preserve">Kill Bills </t>
   </si>
   <si>
+    <t>I'm Sorry Mrs. Jackson</t>
+  </si>
+  <si>
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>I'm Sorry Mrs. Jackson</t>
-  </si>
-  <si>
     <t>Claytons Team of Experts</t>
   </si>
   <si>
@@ -66,46 +66,40 @@
     <t>Frisco Full Can Field Goals 🏈</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>94.4%</t>
-  </si>
-  <si>
-    <t>74.1%</t>
-  </si>
-  <si>
-    <t>71.5%</t>
-  </si>
-  <si>
-    <t>56.6%</t>
+    <t>99.5%</t>
+  </si>
+  <si>
+    <t>56.5%</t>
+  </si>
+  <si>
+    <t>40.7%</t>
   </si>
   <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>1.2%</t>
+    <t>1.1%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -114,22 +108,19 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-1686</t>
-  </si>
-  <si>
-    <t>-286</t>
-  </si>
-  <si>
-    <t>-251</t>
+    <t>-19900</t>
   </si>
   <si>
     <t>-130</t>
   </si>
   <si>
+    <t>+146</t>
+  </si>
+  <si>
     <t>+4445</t>
   </si>
   <si>
-    <t>+8233</t>
+    <t>+8991</t>
   </si>
   <si>
     <t>+∞</t>
@@ -138,34 +129,16 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>85.2%</t>
-  </si>
-  <si>
-    <t>13.3%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>-576</t>
-  </si>
-  <si>
-    <t>+652</t>
-  </si>
-  <si>
-    <t>+6567</t>
-  </si>
-  <si>
-    <t>98.2%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>-5456</t>
-  </si>
-  <si>
-    <t>+5456</t>
+    <t>84.8%</t>
+  </si>
+  <si>
+    <t>15.2%</t>
+  </si>
+  <si>
+    <t>-558</t>
+  </si>
+  <si>
+    <t>+558</t>
   </si>
 </sst>
 </file>
@@ -551,10 +524,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -565,10 +538,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -576,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -590,13 +563,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -604,13 +577,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -621,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -635,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -646,13 +619,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -660,13 +633,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -674,13 +647,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -688,13 +661,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -702,13 +675,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -746,52 +719,52 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -802,10 +775,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -816,10 +789,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -827,13 +800,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -841,69 +814,69 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -938,167 +911,167 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/odds/OnP Fantasy 2025 Betting Odds.xlsx
+++ b/odds/OnP Fantasy 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="29">
   <si>
     <t>Record</t>
   </si>
@@ -36,109 +36,73 @@
     <t>Red Bulls On Parade</t>
   </si>
   <si>
+    <t xml:space="preserve">Dennis The Menace </t>
+  </si>
+  <si>
     <t>U Lost to a Red Bull Rookie</t>
   </si>
   <si>
+    <t>Cowtown Cowboys</t>
+  </si>
+  <si>
     <t>No, This Is Patrick!</t>
   </si>
   <si>
-    <t>Cowtown Cowboys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis The Menace </t>
+    <t>Claytons Team of Experts</t>
   </si>
   <si>
     <t xml:space="preserve">Kill Bills </t>
   </si>
   <si>
+    <t xml:space="preserve"> Johnny  Dramas </t>
+  </si>
+  <si>
+    <t>Frisco Full Can Field Goals 🏈</t>
+  </si>
+  <si>
     <t>I'm Sorry Mrs. Jackson</t>
   </si>
   <si>
     <t>Cans in My Hands</t>
   </si>
   <si>
-    <t>Claytons Team of Experts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Johnny  Dramas </t>
-  </si>
-  <si>
-    <t>Frisco Full Can Field Goals 🏈</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.5%</t>
-  </si>
-  <si>
-    <t>56.5%</t>
-  </si>
-  <si>
-    <t>40.7%</t>
-  </si>
-  <si>
-    <t>2.2%</t>
-  </si>
-  <si>
-    <t>1.1%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-19900</t>
-  </si>
-  <si>
-    <t>-130</t>
-  </si>
-  <si>
-    <t>+146</t>
-  </si>
-  <si>
-    <t>+4445</t>
-  </si>
-  <si>
-    <t>+8991</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>84.8%</t>
-  </si>
-  <si>
-    <t>15.2%</t>
-  </si>
-  <si>
-    <t>-558</t>
-  </si>
-  <si>
-    <t>+558</t>
   </si>
 </sst>
 </file>
@@ -524,10 +488,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -535,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -549,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -563,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -577,13 +541,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -591,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -605,13 +569,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -619,13 +583,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -633,13 +597,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -647,13 +611,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -661,13 +625,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -675,13 +639,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -713,44 +677,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -758,83 +722,83 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -842,41 +806,41 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -908,16 +872,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -928,10 +892,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -939,83 +903,83 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,55 +987,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
